--- a/demo2_check_list.xlsx
+++ b/demo2_check_list.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="570" windowWidth="15120" windowHeight="6960"/>
   </bookViews>
   <sheets>
-    <sheet name="Test coverage list" sheetId="1" r:id="rId1"/>
+    <sheet name="Test list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>Functionality</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Сайт Commentssprintone.azurewebsites.net</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>Google Chrome
  65.0.3325.146</t>
   </si>
@@ -249,6 +246,10 @@
   </si>
   <si>
     <t>Отобразится зеленым предупреждение "Selected comments deleted successfull"</t>
+  </si>
+  <si>
+    <t>Firefox
+54</t>
   </si>
 </sst>
 </file>
@@ -347,7 +348,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +433,18 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -484,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -609,14 +622,7 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,20 +641,444 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1263,19 +1693,19 @@
   <dimension ref="A1:BB926"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="11" width="14.42578125" customWidth="1"/>
@@ -1294,16 +1724,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="59" t="s">
-        <v>61</v>
+      <c r="B1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="67" t="s">
+        <v>60</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>60</v>
+      <c r="E1" s="67" t="s">
+        <v>77</v>
       </c>
       <c r="G1" s="50"/>
       <c r="I1" s="13"/>
@@ -1354,22 +1784,22 @@
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="56"/>
       <c r="H2" s="11"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1431,7 +1861,9 @@
       <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1493,7 +1925,9 @@
       <c r="D4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1546,16 +1980,18 @@
       <c r="A5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1606,18 +2042,20 @@
     </row>
     <row r="6" spans="1:54" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1650,8 +2088,8 @@
       <c r="AI6" s="17"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17"/>
@@ -1670,18 +2108,20 @@
     </row>
     <row r="7" spans="1:54" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1714,8 +2154,8 @@
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
       <c r="AP7" s="17"/>
@@ -1734,18 +2174,20 @@
     </row>
     <row r="8" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="C8" s="54" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1778,8 +2220,8 @@
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
@@ -1798,18 +2240,20 @@
     </row>
     <row r="9" spans="1:54" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="57" t="s">
+        <v>5</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1840,8 +2284,8 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
       <c r="AN9" s="17"/>
       <c r="AO9" s="17"/>
       <c r="AP9" s="17"/>
@@ -1860,18 +2304,20 @@
     </row>
     <row r="10" spans="1:54" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1902,8 +2348,8 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
@@ -1922,18 +2368,20 @@
     </row>
     <row r="11" spans="1:54" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1964,8 +2412,8 @@
       <c r="AI11" s="17"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
@@ -2018,8 +2466,8 @@
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
@@ -2039,10 +2487,6 @@
     <row r="13" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="51"/>
-      <c r="E13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="48"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="11"/>
@@ -2073,8 +2517,8 @@
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
       <c r="AN13" s="17"/>
       <c r="AO13" s="17"/>
       <c r="AP13" s="17"/>
@@ -2092,8 +2536,10 @@
       <c r="BB13" s="3"/>
     </row>
     <row r="14" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="48"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="11"/>
@@ -2124,8 +2570,8 @@
       <c r="AI14" s="17"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
       <c r="AP14" s="17"/>
@@ -2143,14 +2589,6 @@
       <c r="BB14" s="3"/>
     </row>
     <row r="15" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="51"/>
-      <c r="E15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>12</v>
-      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2200,13 +2638,11 @@
       <c r="BB15" s="3"/>
     </row>
     <row r="16" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="51"/>
-      <c r="E16" s="30" t="s">
-        <v>2</v>
+      <c r="A16" s="36" t="s">
+        <v>13</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>7</v>
+      <c r="B16" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2258,13 +2694,11 @@
       <c r="BB16" s="3"/>
     </row>
     <row r="17" spans="1:54" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
-      <c r="E17" s="32" t="s">
-        <v>5</v>
+      <c r="A17" s="30" t="s">
+        <v>2</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>8</v>
+      <c r="B17" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2316,13 +2750,11 @@
       <c r="BB17" s="9"/>
     </row>
     <row r="18" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51"/>
-      <c r="E18" s="33" t="s">
-        <v>6</v>
+      <c r="A18" s="32" t="s">
+        <v>5</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>9</v>
+      <c r="B18" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2374,13 +2806,11 @@
       <c r="BB18" s="3"/>
     </row>
     <row r="19" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="39"/>
-      <c r="E19" s="35" t="s">
-        <v>10</v>
+      <c r="A19" s="33" t="s">
+        <v>6</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>18</v>
+      <c r="B19" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2432,8 +2862,12 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:54" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
@@ -8272,7 +8706,7 @@
       <c r="AI121" s="17"/>
       <c r="AJ121" s="17"/>
       <c r="AK121" s="17"/>
-      <c r="AL121" s="69"/>
+      <c r="AL121" s="65"/>
       <c r="AM121" s="20"/>
       <c r="AN121" s="17"/>
       <c r="AO121" s="17"/>
@@ -8328,7 +8762,7 @@
       <c r="AI122" s="17"/>
       <c r="AJ122" s="17"/>
       <c r="AK122" s="17"/>
-      <c r="AL122" s="66"/>
+      <c r="AL122" s="64"/>
       <c r="AM122" s="20"/>
       <c r="AN122" s="17"/>
       <c r="AO122" s="17"/>
@@ -8384,7 +8818,7 @@
       <c r="AI123" s="17"/>
       <c r="AJ123" s="17"/>
       <c r="AK123" s="17"/>
-      <c r="AL123" s="66"/>
+      <c r="AL123" s="64"/>
       <c r="AM123" s="20"/>
       <c r="AN123" s="17"/>
       <c r="AO123" s="17"/>
@@ -8440,7 +8874,7 @@
       <c r="AI124" s="17"/>
       <c r="AJ124" s="17"/>
       <c r="AK124" s="17"/>
-      <c r="AL124" s="66"/>
+      <c r="AL124" s="64"/>
       <c r="AM124" s="20"/>
       <c r="AN124" s="17"/>
       <c r="AO124" s="17"/>
@@ -8496,7 +8930,7 @@
       <c r="AI125" s="17"/>
       <c r="AJ125" s="17"/>
       <c r="AK125" s="17"/>
-      <c r="AL125" s="66"/>
+      <c r="AL125" s="64"/>
       <c r="AM125" s="20"/>
       <c r="AN125" s="17"/>
       <c r="AO125" s="17"/>
@@ -8552,7 +8986,7 @@
       <c r="AI126" s="17"/>
       <c r="AJ126" s="17"/>
       <c r="AK126" s="17"/>
-      <c r="AL126" s="66"/>
+      <c r="AL126" s="64"/>
       <c r="AM126" s="20"/>
       <c r="AN126" s="17"/>
       <c r="AO126" s="17"/>
@@ -8608,7 +9042,7 @@
       <c r="AI127" s="17"/>
       <c r="AJ127" s="17"/>
       <c r="AK127" s="17"/>
-      <c r="AL127" s="66"/>
+      <c r="AL127" s="64"/>
       <c r="AM127" s="20"/>
       <c r="AN127" s="17"/>
       <c r="AO127" s="17"/>
@@ -8664,7 +9098,7 @@
       <c r="AI128" s="17"/>
       <c r="AJ128" s="17"/>
       <c r="AK128" s="17"/>
-      <c r="AL128" s="66"/>
+      <c r="AL128" s="64"/>
       <c r="AM128" s="20"/>
       <c r="AN128" s="17"/>
       <c r="AO128" s="17"/>
@@ -8720,7 +9154,7 @@
       <c r="AI129" s="17"/>
       <c r="AJ129" s="17"/>
       <c r="AK129" s="17"/>
-      <c r="AL129" s="66"/>
+      <c r="AL129" s="64"/>
       <c r="AM129" s="20"/>
       <c r="AN129" s="17"/>
       <c r="AO129" s="17"/>
@@ -8776,7 +9210,7 @@
       <c r="AI130" s="17"/>
       <c r="AJ130" s="17"/>
       <c r="AK130" s="17"/>
-      <c r="AL130" s="66"/>
+      <c r="AL130" s="64"/>
       <c r="AM130" s="20"/>
       <c r="AN130" s="17"/>
       <c r="AO130" s="17"/>
@@ -8832,7 +9266,7 @@
       <c r="AI131" s="17"/>
       <c r="AJ131" s="17"/>
       <c r="AK131" s="17"/>
-      <c r="AL131" s="66"/>
+      <c r="AL131" s="64"/>
       <c r="AM131" s="20"/>
       <c r="AN131" s="17"/>
       <c r="AO131" s="17"/>
@@ -8860,7 +9294,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
-      <c r="J132" s="68"/>
+      <c r="J132" s="63"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
@@ -8916,7 +9350,7 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="66"/>
+      <c r="J133" s="64"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
@@ -8972,7 +9406,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
-      <c r="J134" s="66"/>
+      <c r="J134" s="64"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
@@ -9028,7 +9462,7 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
-      <c r="J135" s="66"/>
+      <c r="J135" s="64"/>
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
@@ -9084,7 +9518,7 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
-      <c r="J136" s="66"/>
+      <c r="J136" s="64"/>
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
       <c r="M136" s="11"/>
@@ -9140,7 +9574,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
-      <c r="J137" s="66"/>
+      <c r="J137" s="64"/>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
@@ -9196,7 +9630,7 @@
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
-      <c r="J138" s="66"/>
+      <c r="J138" s="64"/>
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
       <c r="M138" s="11"/>
@@ -9252,7 +9686,7 @@
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
-      <c r="J139" s="66"/>
+      <c r="J139" s="64"/>
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
       <c r="M139" s="11"/>
@@ -9308,7 +9742,7 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
-      <c r="J140" s="66"/>
+      <c r="J140" s="64"/>
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
@@ -9364,7 +9798,7 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
-      <c r="J141" s="66"/>
+      <c r="J141" s="64"/>
       <c r="K141" s="11"/>
       <c r="L141" s="11"/>
       <c r="M141" s="11"/>
@@ -11038,7 +11472,7 @@
       <c r="A171" s="26"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
-      <c r="D171" s="68"/>
+      <c r="D171" s="63"/>
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
@@ -11094,7 +11528,7 @@
       <c r="A172" s="11"/>
       <c r="B172" s="18"/>
       <c r="C172" s="24"/>
-      <c r="D172" s="66"/>
+      <c r="D172" s="64"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
@@ -37439,148 +37873,260 @@
     <mergeCell ref="AL121:AL131"/>
   </mergeCells>
   <conditionalFormatting sqref="D12 D29:D35">
-    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="68" priority="75" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D92">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Not run">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Not run">
       <formula>NOT(ISERROR(SEARCH("Not run",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH("Skipped",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68:D92 D29:D35 D10:D12 D3:D8">
-      <formula1>$E$16:$E$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68:D92 E10:E11 D3:E8 D10:D12 D29:D35">
+      <formula1>$A$17:$A$20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
